--- a/obesity/NewYork.xlsx
+++ b/obesity/NewYork.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cdc\project\CCHP_NCCD_DDT_Data1\epistat\KAK\Single map county data by state\OBPREV2013\compliance\compliance2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosabreu/Desktop/analise_de_midias/obesity/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F10C618-4246-D842-BFF8-92E321046B2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24000" windowHeight="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_NewYork" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,19 @@
   <definedNames>
     <definedName name="IDX" localSheetId="0">data_NewYork!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="142">
   <si>
     <t>Obesity Prevalence</t>
   </si>
@@ -431,11 +439,29 @@
   <si>
     <t>Yates County</t>
   </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Número Total de casos</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Média (Lower)</t>
+  </si>
+  <si>
+    <t>Média(Upper</t>
+  </si>
+  <si>
+    <t>Numero de pessoas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\_x0000_.0"/>
   </numFmts>
@@ -1146,7 +1172,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1199,6 +1225,12 @@
     <xf numFmtId="164" fontId="23" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1216,50 +1248,50 @@
     </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperlink" xfId="42" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="43" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1536,189 +1568,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:BU66"/>
+  <dimension ref="A2:CB66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BR1" workbookViewId="0">
+      <selection activeCell="CA6" sqref="CA6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.1640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="8" style="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.1640625" style="1" customWidth="1"/>
     <col min="33" max="33" width="8" style="1" customWidth="1"/>
-    <col min="34" max="34" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.140625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1640625" style="1" customWidth="1"/>
     <col min="40" max="40" width="8" style="1" customWidth="1"/>
-    <col min="41" max="41" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.140625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.1640625" style="1" customWidth="1"/>
     <col min="47" max="47" width="8" style="1" customWidth="1"/>
-    <col min="48" max="48" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.140625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.1640625" style="1" customWidth="1"/>
     <col min="54" max="54" width="8" style="1" customWidth="1"/>
-    <col min="55" max="55" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.140625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.1640625" style="1" customWidth="1"/>
     <col min="61" max="61" width="8" style="1" customWidth="1"/>
-    <col min="62" max="62" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.140625" style="1" customWidth="1"/>
+    <col min="66" max="66" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="8.1640625" style="1" customWidth="1"/>
     <col min="68" max="68" width="8" style="1" customWidth="1"/>
-    <col min="69" max="69" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.140625" style="1"/>
+    <col min="73" max="73" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:73" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:73" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+    <row r="2" spans="1:80" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:80" ht="18" x14ac:dyDescent="0.15">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="18">
+      <c r="D3" s="20">
         <v>2004</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="18">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="20">
         <v>2005</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="18">
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="20">
         <v>2006</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="18">
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="20">
         <v>2007</v>
       </c>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="18">
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="20">
         <v>2008</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="18">
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="20">
         <v>2009</v>
       </c>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="18">
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="22"/>
+      <c r="AT3" s="20">
         <v>2010</v>
       </c>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="18">
+      <c r="AU3" s="21"/>
+      <c r="AV3" s="21"/>
+      <c r="AW3" s="21"/>
+      <c r="AX3" s="21"/>
+      <c r="AY3" s="21"/>
+      <c r="AZ3" s="22"/>
+      <c r="BA3" s="20">
         <v>2011</v>
       </c>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="18">
+      <c r="BB3" s="21"/>
+      <c r="BC3" s="21"/>
+      <c r="BD3" s="21"/>
+      <c r="BE3" s="21"/>
+      <c r="BF3" s="21"/>
+      <c r="BG3" s="22"/>
+      <c r="BH3" s="20">
         <v>2012</v>
       </c>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="19"/>
-      <c r="BK3" s="19"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="20"/>
-      <c r="BO3" s="18">
+      <c r="BI3" s="21"/>
+      <c r="BJ3" s="21"/>
+      <c r="BK3" s="21"/>
+      <c r="BL3" s="21"/>
+      <c r="BM3" s="21"/>
+      <c r="BN3" s="22"/>
+      <c r="BO3" s="20">
         <v>2013</v>
       </c>
-      <c r="BP3" s="19"/>
-      <c r="BQ3" s="19"/>
-      <c r="BR3" s="19"/>
-      <c r="BS3" s="19"/>
-      <c r="BT3" s="19"/>
-      <c r="BU3" s="22"/>
+      <c r="BP3" s="21"/>
+      <c r="BQ3" s="21"/>
+      <c r="BR3" s="21"/>
+      <c r="BS3" s="21"/>
+      <c r="BT3" s="21"/>
+      <c r="BU3" s="24"/>
+      <c r="BW3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -1938,8 +1990,31 @@
       <c r="BU4" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="BW4" s="1">
+        <v>2004</v>
+      </c>
+      <c r="BX4" s="18">
+        <f>SUM(D5:D300)</f>
+        <v>2919067.4</v>
+      </c>
+      <c r="BY4" s="18">
+        <f>AVERAGE(E5:E300)</f>
+        <v>22.229032258064514</v>
+      </c>
+      <c r="BZ4" s="18">
+        <f>AVERAGE(F5:F300)</f>
+        <v>17.722580645161294</v>
+      </c>
+      <c r="CA4" s="18">
+        <f>AVERAGE(G5:G300)</f>
+        <v>27.558064516129033</v>
+      </c>
+      <c r="CB4" s="19">
+        <f>BX4*100/BY4</f>
+        <v>13131779.045131331</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -2159,8 +2234,31 @@
       <c r="BU5" s="11">
         <v>29.1</v>
       </c>
+      <c r="BW5" s="1">
+        <v>2005</v>
+      </c>
+      <c r="BX5" s="1">
+        <f>SUM(K5:K300)</f>
+        <v>3041998</v>
+      </c>
+      <c r="BY5" s="18">
+        <f>AVERAGE(L5:L300)</f>
+        <v>23.295161290322582</v>
+      </c>
+      <c r="BZ5" s="18">
+        <f>AVERAGE(M5:M300)</f>
+        <v>18.675806451612896</v>
+      </c>
+      <c r="CA5" s="18">
+        <f>AVERAGE(N5:N300)</f>
+        <v>28.727419354838712</v>
+      </c>
+      <c r="CB5" s="19">
+        <f t="shared" ref="CB5:CB13" si="0">BX5*100/BY5</f>
+        <v>13058497.265111126</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -2380,8 +2478,31 @@
       <c r="BU6" s="11">
         <v>36.9</v>
       </c>
+      <c r="BW6" s="1">
+        <v>2006</v>
+      </c>
+      <c r="BX6" s="18">
+        <f>SUM(R5:R300)</f>
+        <v>3227956.9</v>
+      </c>
+      <c r="BY6" s="18">
+        <f>AVERAGE(S5:S300)</f>
+        <v>24.561290322580643</v>
+      </c>
+      <c r="BZ6" s="18">
+        <f>AVERAGE(T5:T300)</f>
+        <v>19.890322580645162</v>
+      </c>
+      <c r="CA6" s="18">
+        <f>AVERAGE(U5:U300)</f>
+        <v>30.012903225806451</v>
+      </c>
+      <c r="CB6" s="19">
+        <f t="shared" si="0"/>
+        <v>13142456.514315736</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -2601,8 +2722,31 @@
       <c r="BU7" s="11">
         <v>33.200000000000003</v>
       </c>
+      <c r="BW7" s="1">
+        <v>2007</v>
+      </c>
+      <c r="BX7" s="18">
+        <f>SUM(Y5:Y300)</f>
+        <v>3385792</v>
+      </c>
+      <c r="BY7" s="18">
+        <f>AVERAGE(Z5:Z300)</f>
+        <v>25.601612903225803</v>
+      </c>
+      <c r="BZ7" s="18">
+        <f>AVERAGE(AA5:AA300)</f>
+        <v>20.725806451612904</v>
+      </c>
+      <c r="CA7" s="18">
+        <f>AVERAGE(AB5:AB300)</f>
+        <v>31.30806451612904</v>
+      </c>
+      <c r="CB7" s="19">
+        <f t="shared" si="0"/>
+        <v>13224916.77691678</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -2822,8 +2966,31 @@
       <c r="BU8" s="11">
         <v>32.299999999999997</v>
       </c>
+      <c r="BW8" s="1">
+        <v>2008</v>
+      </c>
+      <c r="BX8" s="1">
+        <f>SUM(AF5:AF300)</f>
+        <v>3537800</v>
+      </c>
+      <c r="BY8" s="18">
+        <f>AVERAGE(AG5:AG300)</f>
+        <v>26.609677419354842</v>
+      </c>
+      <c r="BZ8" s="18">
+        <f>AVERAGE(AH5:AH300)</f>
+        <v>21.640322580645162</v>
+      </c>
+      <c r="CA8" s="18">
+        <f>AVERAGE(AI5:AI300)</f>
+        <v>32.385483870967754</v>
+      </c>
+      <c r="CB8" s="19">
+        <f t="shared" si="0"/>
+        <v>13295163.050066672</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -3043,8 +3210,31 @@
       <c r="BU9" s="11">
         <v>34.299999999999997</v>
       </c>
+      <c r="BW9" s="1">
+        <v>2009</v>
+      </c>
+      <c r="BX9" s="18">
+        <f>SUM(AM5:AM300)</f>
+        <v>3575089</v>
+      </c>
+      <c r="BY9" s="18">
+        <f>AVERAGE(AN5:AN300)</f>
+        <v>27.533870967741933</v>
+      </c>
+      <c r="BZ9" s="18">
+        <f>AVERAGE(AO5:AO300)</f>
+        <v>22.861290322580651</v>
+      </c>
+      <c r="CA9" s="18">
+        <f>AVERAGE(AP5:AP300)</f>
+        <v>32.614516129032253</v>
+      </c>
+      <c r="CB9" s="19">
+        <f t="shared" si="0"/>
+        <v>12984331.204967489</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -3264,8 +3454,31 @@
       <c r="BU10" s="11">
         <v>37.299999999999997</v>
       </c>
+      <c r="BW10" s="1">
+        <v>2010</v>
+      </c>
+      <c r="BX10" s="18">
+        <f>SUM(AT5:AT300)</f>
+        <v>3552158</v>
+      </c>
+      <c r="BY10" s="18">
+        <f>AVERAGE(AU5:AU6300)</f>
+        <v>27.396774193548396</v>
+      </c>
+      <c r="BZ10" s="18">
+        <f>AVERAGE(AV5:AV6300)</f>
+        <v>22.56129032258065</v>
+      </c>
+      <c r="CA10" s="18">
+        <f>AVERAGE(AW5:AW6300)</f>
+        <v>32.627419354838722</v>
+      </c>
+      <c r="CB10" s="19">
+        <f t="shared" si="0"/>
+        <v>12965606.734958196</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -3485,8 +3698,31 @@
       <c r="BU11" s="11">
         <v>34.799999999999997</v>
       </c>
+      <c r="BW11" s="1">
+        <v>2011</v>
+      </c>
+      <c r="BX11" s="1">
+        <f>SUM(BA5:BA300)</f>
+        <v>3544085</v>
+      </c>
+      <c r="BY11" s="18">
+        <f>AVERAGE(BB5:BB300)</f>
+        <v>27.453225806451616</v>
+      </c>
+      <c r="BZ11" s="18">
+        <f>AVERAGE(BC5:BC300)</f>
+        <v>22.458064516129035</v>
+      </c>
+      <c r="CA11" s="18">
+        <f>AVERAGE(BD5:BD300)</f>
+        <v>32.87096774193548</v>
+      </c>
+      <c r="CB11" s="19">
+        <f t="shared" si="0"/>
+        <v>12909539.392515127</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -3706,8 +3942,31 @@
       <c r="BU12" s="11">
         <v>35.5</v>
       </c>
+      <c r="BW12" s="1">
+        <v>2012</v>
+      </c>
+      <c r="BX12" s="18">
+        <f>SUM(BH5:BH300)</f>
+        <v>3564869</v>
+      </c>
+      <c r="BY12" s="18">
+        <f>AVERAGE(BI5:BI300)</f>
+        <v>27.340322580645157</v>
+      </c>
+      <c r="BZ12" s="18">
+        <f>AVERAGE(BJ5:BJ300)</f>
+        <v>22.287096774193554</v>
+      </c>
+      <c r="CA12" s="18">
+        <f>AVERAGE(BK5:BK300)</f>
+        <v>32.866129032258051</v>
+      </c>
+      <c r="CB12" s="19">
+        <f t="shared" si="0"/>
+        <v>13038869.565217393</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -3927,8 +4186,31 @@
       <c r="BU13" s="11">
         <v>37.1</v>
       </c>
+      <c r="BW13" s="1">
+        <v>2013</v>
+      </c>
+      <c r="BX13" s="18">
+        <f>SUM(BO5:BO300)</f>
+        <v>3663663</v>
+      </c>
+      <c r="BY13" s="18">
+        <f>AVERAGE(BP6:BP300)</f>
+        <v>27.559016393442626</v>
+      </c>
+      <c r="BZ13" s="18">
+        <f>AVERAGE(BQ6:BQ300)</f>
+        <v>22.491803278688526</v>
+      </c>
+      <c r="CA13" s="18">
+        <f>AVERAGE(BR6:BR300)</f>
+        <v>33.116393442622957</v>
+      </c>
+      <c r="CB13" s="19">
+        <f t="shared" si="0"/>
+        <v>13293881.565641543</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -4149,7 +4431,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="15" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
@@ -4370,7 +4652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
@@ -4591,7 +4873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
@@ -4812,7 +5094,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
@@ -5033,7 +5315,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="19" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
@@ -5254,7 +5536,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="20" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -5475,7 +5757,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="21" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>11</v>
       </c>
@@ -5696,7 +5978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>11</v>
       </c>
@@ -5917,7 +6199,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="23" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>11</v>
       </c>
@@ -6138,7 +6420,7 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>11</v>
       </c>
@@ -6359,7 +6641,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="25" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
@@ -6580,7 +6862,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>11</v>
       </c>
@@ -6801,7 +7083,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
@@ -7022,7 +7304,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>11</v>
       </c>
@@ -7243,7 +7525,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="29" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>11</v>
       </c>
@@ -7464,7 +7746,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>11</v>
       </c>
@@ -7685,7 +7967,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>11</v>
       </c>
@@ -7906,7 +8188,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="32" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>11</v>
       </c>
@@ -8127,7 +8409,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="33" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>11</v>
       </c>
@@ -8348,7 +8630,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>11</v>
       </c>
@@ -8569,7 +8851,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="35" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>11</v>
       </c>
@@ -8790,7 +9072,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="36" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>11</v>
       </c>
@@ -9011,7 +9293,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>11</v>
       </c>
@@ -9232,7 +9514,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="38" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>11</v>
       </c>
@@ -9453,7 +9735,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="39" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>11</v>
       </c>
@@ -9674,7 +9956,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="40" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>11</v>
       </c>
@@ -9895,7 +10177,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="41" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>11</v>
       </c>
@@ -10116,7 +10398,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>11</v>
       </c>
@@ -10337,7 +10619,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>11</v>
       </c>
@@ -10558,7 +10840,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
         <v>11</v>
       </c>
@@ -10779,7 +11061,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="45" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
         <v>11</v>
       </c>
@@ -11000,7 +11282,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="46" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>11</v>
       </c>
@@ -11221,7 +11503,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
         <v>11</v>
       </c>
@@ -11442,7 +11724,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="48" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
         <v>11</v>
       </c>
@@ -11663,7 +11945,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="49" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>11</v>
       </c>
@@ -11884,7 +12166,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="50" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
         <v>11</v>
       </c>
@@ -12105,7 +12387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
@@ -12326,7 +12608,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>11</v>
       </c>
@@ -12547,7 +12829,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="53" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>11</v>
       </c>
@@ -12768,7 +13050,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>11</v>
       </c>
@@ -12989,7 +13271,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="55" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>11</v>
       </c>
@@ -13210,7 +13492,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="56" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>11</v>
       </c>
@@ -13431,7 +13713,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="57" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
         <v>11</v>
       </c>
@@ -13652,7 +13934,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>11</v>
       </c>
@@ -13873,7 +14155,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>11</v>
       </c>
@@ -14094,7 +14376,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="60" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>11</v>
       </c>
@@ -14315,7 +14597,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="61" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
         <v>11</v>
       </c>
@@ -14536,7 +14818,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="62" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
         <v>11</v>
       </c>
@@ -14757,7 +15039,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>11</v>
       </c>
@@ -14978,7 +15260,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="64" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>11</v>
       </c>
@@ -15199,7 +15481,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="65" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>11</v>
       </c>
@@ -15420,7 +15702,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="66" spans="1:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:73" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
         <v>11</v>
       </c>
